--- a/方向盘电机测试/每秒脉冲数/每秒脉冲数.xlsx
+++ b/方向盘电机测试/每秒脉冲数/每秒脉冲数.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
